--- a/SWP391-AppDevProject_Evaluations-LOC.xlsx
+++ b/SWP391-AppDevProject_Evaluations-LOC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\GAME\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F492F423-47CB-436C-86EE-8CAF7BF252E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE803438-3D5B-42D3-BB49-7A72C143F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="77">
   <si>
     <t>SE05407</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>Function PaybyPaypal</t>
+  </si>
+  <si>
+    <t>Function Paging</t>
+  </si>
+  <si>
+    <t>Function Cookies</t>
   </si>
 </sst>
 </file>
@@ -273,7 +279,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,8 +461,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,8 +674,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -800,26 +820,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -869,7 +869,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -911,18 +911,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="19" fillId="35" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="35" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="11" fillId="37" borderId="2" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="37" borderId="2" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="35" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="35" quotePrefix="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="35" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1611,7 +1620,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10AF0F47-71FF-8849-B242-EEB8A49D1C2C}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10AF0F47-71FF-8849-B242-EEB8A49D1C2C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B9:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -1699,7 +1708,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD60916C-A7BC-694B-A31E-05F9CA6E6D46}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD60916C-A7BC-694B-A31E-05F9CA6E6D46}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C10:D16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -2095,10 +2104,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2112,32 +2121,32 @@
     <col min="7" max="7" width="35.88671875" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="8" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="29.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="7.5546875" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="6" hidden="1" customWidth="1"/>
     <col min="16" max="237" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
@@ -2145,464 +2154,600 @@
       <c r="K5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="P8" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="20">
         <f>IF(C9="Complex", 240, IF(C9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="17">
+      <c r="K9" s="19"/>
+      <c r="L9" s="20">
         <f>D9*IF(J9="High",100%,IF(J9="Medium",75%,50%))</f>
         <v>60</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20">
+        <f>D10*IF(M9="High",100%,IF(M9="Medium",75%,50%))</f>
+        <v>60</v>
+      </c>
+      <c r="P9" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="17">
-        <f>D10*IF(M9="High",100%,IF(M9="Medium",75%,50%))</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="17">
-        <f t="shared" ref="D10:D17" si="0">IF(C10="Complex", 240, IF(C10="Medium",120,60))</f>
+      <c r="D10" s="20">
+        <f t="shared" ref="D10:D19" si="0">IF(C10="Complex", 240, IF(C10="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="17">
+      <c r="K10" s="19"/>
+      <c r="L10" s="20">
         <f>D10*IF(J10="High",100%,IF(J10="Medium",75%,50%))</f>
         <v>60</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20">
+        <f t="shared" ref="O10:O15" si="1">D11*IF(M10="High",100%,IF(M10="Medium",75%,50%))</f>
+        <v>90</v>
+      </c>
+      <c r="P10" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20">
+        <f t="shared" ref="L11:L17" si="2">D11*IF(J11="High",100%,IF(J11="Medium",75%,50%))</f>
+        <v>90</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P11" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P12" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P13" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="P14" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="M15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="17">
-        <f t="shared" ref="O10:O15" si="1">D11*IF(M10="High",100%,IF(M10="Medium",75%,50%))</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="17">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="17">
-        <f t="shared" ref="L11:L17" si="2">D11*IF(J11="High",100%,IF(J11="Medium",75%,50%))</f>
-        <v>180</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="17">
+      <c r="N15" s="19"/>
+      <c r="O15" s="20">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="P15" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D16" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="E16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="18" t="s">
+      <c r="I16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="17">
+      <c r="K16" s="19"/>
+      <c r="L16" s="20">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="17">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="17">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="17">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="17">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="17">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="17">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="17">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D17" s="20">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="F17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="17">
+      <c r="K17" s="19"/>
+      <c r="L17" s="20">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="17">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="M17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D18" s="20">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="F18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="21">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D19" s="20">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="19">
         <v>60</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="21">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2620,8 +2765,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SWP391-AppDevProject_Evaluations-LOC.xlsx
+++ b/SWP391-AppDevProject_Evaluations-LOC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\GAME\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE803438-3D5B-42D3-BB49-7A72C143F4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Assignemnts-original" sheetId="9" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Iteration-LOC" sheetId="10" r:id="rId4"/>
     <sheet name="Final-LOC" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="84">
   <si>
     <t>SE05407</t>
   </si>
@@ -262,19 +261,40 @@
     <t>Function ForgotPass</t>
   </si>
   <si>
-    <t>Function PaybyPaypal</t>
-  </si>
-  <si>
     <t>Function Paging</t>
   </si>
   <si>
-    <t>Function Cookies</t>
+    <t>render to shoping</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>search product by admin</t>
+  </si>
+  <si>
+    <t>render contact</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -681,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -820,6 +840,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -869,7 +937,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -932,6 +1000,14 @@
     <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="12" xfId="35" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="13" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="14" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="1" xfId="35" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="15" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="14" xfId="35" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -972,8 +1048,8 @@
     <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 5" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 3 2" xfId="38"/>
+    <cellStyle name="Normal 5" xfId="39"/>
     <cellStyle name="Note" xfId="40" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="41" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="45" builtinId="5"/>
@@ -1311,7 +1387,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="KienNT" refreshedDate="44316.897078587965" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7" xr:uid="{9E81F153-8023-7D42-B7D2-50B888075166}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="KienNT" refreshedDate="44316.897078587965" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
     <worksheetSource ref="A8:L15" sheet="Assignemnts-original"/>
   </cacheSource>
@@ -1372,7 +1448,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="KienNT" refreshedDate="44316.897422453701" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7" xr:uid="{824247C1-A7E4-484B-89E3-4C1FD9BA81A7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="KienNT" refreshedDate="44316.897422453701" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
     <worksheetSource ref="F8:O15" sheet="Assignemnts-original"/>
   </cacheSource>
@@ -1620,7 +1696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10AF0F47-71FF-8849-B242-EEB8A49D1C2C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B9:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -1708,7 +1784,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD60916C-A7BC-694B-A31E-05F9CA6E6D46}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C10:D16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -1856,23 +1932,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1908,23 +1967,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2100,19 +2142,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5613094-B75C-C14E-B61C-8FC66DB56867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="8.109375" hidden="1" customWidth="1"/>
@@ -2264,9 +2306,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>54</v>
       </c>
@@ -2274,7 +2314,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="20">
-        <f t="shared" ref="D10:D19" si="0">IF(C10="Complex", 240, IF(C10="Medium",120,60))</f>
+        <f t="shared" ref="D10:D18" si="0">IF(C10="Complex", 240, IF(C10="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E10" s="21" t="s">
@@ -2480,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>65</v>
@@ -2650,8 +2690,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>75</v>
+      <c r="A18" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>54</v>
@@ -2691,76 +2731,250 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="35"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="M19" s="22"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="19">
-        <v>60</v>
-      </c>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="E20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="M20" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
+      <c r="P20" s="24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C15" xr:uid="{78B1234F-22F4-A449-B0D4-11D050F5212B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C15">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:K15" xr:uid="{83C29594-E153-2341-BA2C-4D6B2E4A9905}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:K15">
       <formula1>"Iteration 1, Iteration 2, Iteration 3, Final Iteration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15" xr:uid="{DD353BCF-FF4B-234E-8B36-22B2C51AF6C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15">
       <formula1>"Iteration 1, Iteration 2, Iteration 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J15 M9:M15" xr:uid="{CAECEE23-4525-3C41-A62F-B399D0D5E10E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J15 M9:M15">
       <formula1>"Low, Medium, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2771,14 +2985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F850EFD-60D1-4285-9B01-435ABF355F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="B8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3209,16 +3423,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J15 M9:M15" xr:uid="{269A53A0-DDA8-47D9-A0BA-9C90FB32FFD8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J15 M9:M15">
       <formula1>"Low, Medium, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15" xr:uid="{DECE9892-847F-4C08-A000-4ED5566DDB1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15">
       <formula1>"Iteration 1, Iteration 2, Iteration 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:K15" xr:uid="{5E7F0BFA-4F33-4F50-A6D7-A19978423E3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:K15">
       <formula1>"Iteration 1, Iteration 2, Iteration 3, Final Iteration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C15" xr:uid="{5DFE5943-8DE7-460A-B969-6760A1A53D5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C15">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3229,7 +3443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3654DE19-0817-4538-9711-9710F896A88B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6B4AC7-0488-9843-8026-941961BD8FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3352,7 +3566,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>VLOOKUP(B13,'Assignemnts-original'!F:G,2,FALSE)</f>
-        <v>Nguyễn Mạnh Hiếu</v>
+        <v>Huỳnh Chí Cường</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>0</v>
@@ -3428,7 +3642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565A92FD-D16B-594C-A233-DF4DB6AEF1C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3513,7 +3727,7 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>VLOOKUP(C13,'Assignemnts-original'!F:G,2,FALSE)</f>
-        <v>Nguyễn Mạnh Hiếu</v>
+        <v>Huỳnh Chí Cường</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>0</v>

--- a/SWP391-AppDevProject_Evaluations-LOC.xlsx
+++ b/SWP391-AppDevProject_Evaluations-LOC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\GAME\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F968A4BD-47CC-4270-9E7D-072B268F63B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignemnts-original" sheetId="9" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Iteration-LOC" sheetId="10" r:id="rId4"/>
     <sheet name="Final-LOC" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="124">
   <si>
     <t>SE05407</t>
   </si>
@@ -264,24 +265,6 @@
     <t>Function Paging</t>
   </si>
   <si>
-    <t>render to shoping</t>
-  </si>
-  <si>
-    <t>dashboard</t>
-  </si>
-  <si>
-    <t>paypal</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>search product by admin</t>
-  </si>
-  <si>
-    <t>render contact</t>
-  </si>
-  <si>
     <t>simple</t>
   </si>
   <si>
@@ -289,17 +272,155 @@
   </si>
   <si>
     <t>medium</t>
+  </si>
+  <si>
+    <t>Render to shoping</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Search product by admin</t>
+  </si>
+  <si>
+    <t>Render contact</t>
+  </si>
+  <si>
+    <t>RenderUserjob</t>
+  </si>
+  <si>
+    <t>SearchJobUserPage</t>
+  </si>
+  <si>
+    <t>SearchResult</t>
+  </si>
+  <si>
+    <t>RenderJob</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>RenderSupport</t>
+  </si>
+  <si>
+    <t>Jobcate</t>
+  </si>
+  <si>
+    <t>SearchJobinJobcate</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>RenderAdmin</t>
+  </si>
+  <si>
+    <t>Creatjob</t>
+  </si>
+  <si>
+    <t>EditJob</t>
+  </si>
+  <si>
+    <t>DeleteJob</t>
+  </si>
+  <si>
+    <t>Renderinterview schedule</t>
+  </si>
+  <si>
+    <t>EditJobinterview schedule</t>
+  </si>
+  <si>
+    <t>RenderListCV</t>
+  </si>
+  <si>
+    <t>RenderCV</t>
+  </si>
+  <si>
+    <t>CreateAccountStaff</t>
+  </si>
+  <si>
+    <t>PagingCheckoutAdmin</t>
+  </si>
+  <si>
+    <t>PagingCheckoutUser</t>
+  </si>
+  <si>
+    <t>SearchCheckoutAdmin</t>
+  </si>
+  <si>
+    <t>SearchCheckoutUser</t>
+  </si>
+  <si>
+    <t>RenderCheckoutUser</t>
+  </si>
+  <si>
+    <t>RenderCheckoutAdmin</t>
+  </si>
+  <si>
+    <t>SearchByDate</t>
+  </si>
+  <si>
+    <t>RenderAccountStaff</t>
+  </si>
+  <si>
+    <t>EditAccountStaff</t>
+  </si>
+  <si>
+    <t>DeleteAccountStaff</t>
+  </si>
+  <si>
+    <t>PagingAccountStaff</t>
+  </si>
+  <si>
+    <t>ReplyContact</t>
+  </si>
+  <si>
+    <t>PagingContact</t>
+  </si>
+  <si>
+    <t>DeleteContact</t>
+  </si>
+  <si>
+    <t>SearchContact</t>
+  </si>
+  <si>
+    <t>CreateBlog</t>
+  </si>
+  <si>
+    <t>RenderListBlog</t>
+  </si>
+  <si>
+    <t>SearchListBlog</t>
+  </si>
+  <si>
+    <t>RenderBlog</t>
+  </si>
+  <si>
+    <t>PagingBlog</t>
+  </si>
+  <si>
+    <t>SearchJobId</t>
+  </si>
+  <si>
+    <t>EditProfile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +606,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -696,7 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,17 +976,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF7F7F7F"/>
@@ -886,6 +1010,17 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -937,7 +1072,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -979,6 +1114,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="35" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="11" fillId="37" borderId="2" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -990,24 +1134,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="35" quotePrefix="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="13" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="2" xfId="35" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="1" xfId="35" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="12" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="13" xfId="35" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="14" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="9" xfId="41" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="37" borderId="9" xfId="41" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="9" xfId="41" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="9" xfId="41" quotePrefix="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="2" xfId="35" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="12" xfId="35" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="13" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="14" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="1" xfId="35" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="15" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="14" xfId="35" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="9" xfId="41" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="15" xfId="41" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1048,8 +1194,8 @@
     <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="38"/>
-    <cellStyle name="Normal 5" xfId="39"/>
+    <cellStyle name="Normal 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 5" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Note" xfId="40" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="41" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="45" builtinId="5"/>
@@ -1387,7 +1533,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="KienNT" refreshedDate="44316.897078587965" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="KienNT" refreshedDate="44316.897078587965" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A8:L15" sheet="Assignemnts-original"/>
   </cacheSource>
@@ -1448,7 +1594,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="KienNT" refreshedDate="44316.897422453701" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="KienNT" refreshedDate="44316.897422453701" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="F8:O15" sheet="Assignemnts-original"/>
   </cacheSource>
@@ -1696,7 +1842,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B9:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -1784,7 +1930,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C10:D16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -1932,6 +2078,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1967,6 +2130,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2142,14 +2322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2172,23 +2352,23 @@
     <col min="16" max="237" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
@@ -2196,785 +2376,2438 @@
       <c r="K5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="23">
         <f>IF(C9="Complex", 240, IF(C9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="I9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20">
+      <c r="K9" s="22"/>
+      <c r="L9" s="23">
         <f>D9*IF(J9="High",100%,IF(J9="Medium",75%,50%))</f>
         <v>60</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20">
+      <c r="N9" s="22"/>
+      <c r="O9" s="23">
         <f>D10*IF(M9="High",100%,IF(M9="Medium",75%,50%))</f>
         <v>60</v>
       </c>
-      <c r="P9" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19" t="s">
+      <c r="P9" s="22">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="23">
         <f t="shared" ref="D10:D18" si="0">IF(C10="Complex", 240, IF(C10="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20">
+      <c r="K10" s="22"/>
+      <c r="L10" s="23">
         <f>D10*IF(J10="High",100%,IF(J10="Medium",75%,50%))</f>
         <v>60</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20">
+      <c r="N10" s="22"/>
+      <c r="O10" s="23">
         <f t="shared" ref="O10:O15" si="1">D11*IF(M10="High",100%,IF(M10="Medium",75%,50%))</f>
         <v>90</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="22">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="Q10" s="40"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20">
+      <c r="K11" s="22"/>
+      <c r="L11" s="23">
         <f t="shared" ref="L11:L17" si="2">D11*IF(J11="High",100%,IF(J11="Medium",75%,50%))</f>
         <v>90</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20">
+      <c r="N11" s="22"/>
+      <c r="O11" s="23">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="22">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20">
+      <c r="K12" s="22"/>
+      <c r="L12" s="23">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20">
+      <c r="N12" s="22"/>
+      <c r="O12" s="23">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="22">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20">
+      <c r="K13" s="22"/>
+      <c r="L13" s="23">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20">
+      <c r="N13" s="22"/>
+      <c r="O13" s="23">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="22">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20">
+      <c r="K14" s="22"/>
+      <c r="L14" s="23">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20">
+      <c r="N14" s="22"/>
+      <c r="O14" s="23">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="22">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="Q14" s="40"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="22" t="s">
+      <c r="I15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20">
+      <c r="K15" s="22"/>
+      <c r="L15" s="23">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20">
+      <c r="N15" s="22"/>
+      <c r="O15" s="23">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="P15" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="P15" s="22">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="40"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20">
+      <c r="K16" s="22"/>
+      <c r="L16" s="23">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19">
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="Q16" s="40"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="G17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="22" t="s">
+      <c r="I17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20">
+      <c r="K17" s="22"/>
+      <c r="L17" s="23">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="40"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="22" t="s">
+      <c r="I18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="29" t="s">
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="22">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="40"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="40"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="19" t="s">
+      <c r="C20" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="32" t="s">
+      <c r="I20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="40"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="C21" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="31" t="s">
-        <v>83</v>
-      </c>
+      <c r="I21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="28">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="32" t="s">
+      <c r="Q21" s="40"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="C22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>82</v>
-      </c>
+      <c r="I22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
       <c r="P22" s="28">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="32" t="s">
+      <c r="Q22" s="40"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="C23" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="P23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="32" t="s">
+      <c r="I23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="28"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="40"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="23" t="s">
+      <c r="C24" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="32" t="s">
+      <c r="I24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="28"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="40"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="C25" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25">
-        <v>60</v>
+      <c r="I25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="40"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="36"/>
+      <c r="E54" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="36"/>
+      <c r="E55" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="36"/>
+      <c r="E56" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="36"/>
+      <c r="E57" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="36"/>
+      <c r="E58" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="36"/>
+      <c r="E61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="36"/>
+      <c r="E62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I62" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="36"/>
+      <c r="E63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="36"/>
+      <c r="E64" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="36"/>
+      <c r="E66" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="42" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q9:Q25"/>
+  </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:K15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:K15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3, Final Iteration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J15 M9:M15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J15 M9:M15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Low, Medium, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2985,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3423,16 +5256,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J15 M9:M15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J15 M9:M15" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Low, Medium, High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E15" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:K15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:K15" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Iteration 1, Iteration 2, Iteration 3, Final Iteration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C15" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3443,7 +5276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3455,7 +5288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3642,7 +5475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
